--- a/xlsx/country_comparison/solidarity_support_weight_vote_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_weight_vote_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,22 +464,25 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.643076615960455</v>
+        <v>0.633130423220635</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
       </c>
       <c r="D2" t="n">
-        <v>0.709973158695126</v>
+        <v>0.709905396398318</v>
       </c>
       <c r="E2" t="n">
-        <v>0.701138915275408</v>
+        <v>0.701126059691001</v>
       </c>
       <c r="F2" t="n">
         <v>0.717787393269892</v>
@@ -491,33 +497,36 @@
         <v>0.698210762411814</v>
       </c>
       <c r="J2" t="n">
-        <v>0.650852729698099</v>
+        <v>0.650902799584227</v>
       </c>
       <c r="K2" t="n">
-        <v>0.524461128287458</v>
+        <v>0.524491585481855</v>
       </c>
       <c r="L2" t="n">
+        <v>0.568973456184735</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.670833846908728</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.580779052428132</v>
+      <c r="N2" t="n">
+        <v>0.58055052974288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560425612331314</v>
+        <v>0.563498853260559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.604754243711711</v>
+        <v>0.60475424371171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.539542276022898</v>
+        <v>0.539474226981016</v>
       </c>
       <c r="E3" t="n">
-        <v>0.602449904718911</v>
+        <v>0.602478694572106</v>
       </c>
       <c r="F3" t="n">
         <v>0.707890145357511</v>
@@ -532,33 +541,36 @@
         <v>0.630421738216136</v>
       </c>
       <c r="J3" t="n">
-        <v>0.605243204395661</v>
+        <v>0.605304323854534</v>
       </c>
       <c r="K3" t="n">
-        <v>0.445602435311774</v>
+        <v>0.445837116675855</v>
       </c>
       <c r="L3" t="n">
+        <v>0.583955154990387</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.699951386105416</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.505342043101403</v>
+      <c r="N3" t="n">
+        <v>0.505635009871561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.539880221309969</v>
+        <v>0.548888702456242</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53155340496293</v>
+        <v>0.531485285723793</v>
       </c>
       <c r="E4" t="n">
-        <v>0.535619687000305</v>
+        <v>0.535520043103524</v>
       </c>
       <c r="F4" t="n">
         <v>0.644766872360098</v>
@@ -573,279 +585,300 @@
         <v>0.554344822951132</v>
       </c>
       <c r="J4" t="n">
-        <v>0.525974416743201</v>
+        <v>0.526043203777943</v>
       </c>
       <c r="K4" t="n">
-        <v>0.41860311376345</v>
+        <v>0.418778652482084</v>
       </c>
       <c r="L4" t="n">
+        <v>0.605453531287603</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.754595050954226</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.485927148772813</v>
+      <c r="N4" t="n">
+        <v>0.486093474963069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.507911322217956</v>
+        <v>0.492515087699993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.576307051782642</v>
+        <v>0.523046603226999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.543078438185896</v>
+        <v>0.472592378276595</v>
       </c>
       <c r="E5" t="n">
-        <v>0.562197236011098</v>
+        <v>0.427653406382078</v>
       </c>
       <c r="F5" t="n">
-        <v>0.688787338057347</v>
+        <v>0.605555864512875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.475016652934936</v>
+        <v>0.521202526992176</v>
       </c>
       <c r="H5" t="n">
-        <v>0.466000641161711</v>
+        <v>0.525980483709787</v>
       </c>
       <c r="I5" t="n">
-        <v>0.570221750594586</v>
+        <v>0.553417384986919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.506996385931356</v>
+        <v>0.512001347135006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.408476294916267</v>
+        <v>0.358715278828469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.530644213623694</v>
+        <v>0.5178833513058</v>
       </c>
       <c r="M5" t="n">
-        <v>0.426187677885759</v>
+        <v>0.703571225719179</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.457870290523818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4888214870715</v>
+        <v>0.487666417243067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523046603226999</v>
+        <v>0.511419657456943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.472648824608542</v>
+        <v>0.469893732599595</v>
       </c>
       <c r="E6" t="n">
-        <v>0.427766951762727</v>
+        <v>0.474588352501177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.605555864512875</v>
+        <v>0.567811567214036</v>
       </c>
       <c r="G6" t="n">
-        <v>0.521202526992176</v>
+        <v>0.402783255465927</v>
       </c>
       <c r="H6" t="n">
-        <v>0.525980483709787</v>
+        <v>0.542201778861752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.553417384986919</v>
+        <v>0.506093212662672</v>
       </c>
       <c r="J6" t="n">
-        <v>0.511895616619688</v>
+        <v>0.527599708110766</v>
       </c>
       <c r="K6" t="n">
-        <v>0.358677282990153</v>
+        <v>0.30423038698242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.703571225719179</v>
+        <v>0.589896134442377</v>
       </c>
       <c r="M6" t="n">
-        <v>0.457630778515344</v>
+        <v>0.688471530144484</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.423889871127233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.482277519627035</v>
+        <v>0.486367361421124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.556554654633913</v>
+        <v>0.576307051782642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.507461941811805</v>
+        <v>0.542972705389941</v>
       </c>
       <c r="E7" t="n">
-        <v>0.542143126816355</v>
+        <v>0.562204961462218</v>
       </c>
       <c r="F7" t="n">
-        <v>0.594223913846543</v>
+        <v>0.688787338057347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.441717783939359</v>
+        <v>0.475016652934936</v>
       </c>
       <c r="H7" t="n">
-        <v>0.530543360898448</v>
+        <v>0.466000641161711</v>
       </c>
       <c r="I7" t="n">
-        <v>0.531455138277002</v>
+        <v>0.570221750594586</v>
       </c>
       <c r="J7" t="n">
-        <v>0.520127910599713</v>
+        <v>0.507039845048516</v>
       </c>
       <c r="K7" t="n">
-        <v>0.325379533870706</v>
+        <v>0.408669702435669</v>
       </c>
       <c r="L7" t="n">
-        <v>0.629350439518224</v>
+        <v>0.34778801311712</v>
       </c>
       <c r="M7" t="n">
-        <v>0.404937791173453</v>
+        <v>0.530644213623694</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.425904969118064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.474965817868993</v>
+        <v>0.484425269846573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.540327123031372</v>
+        <v>0.532496566334214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.561688271698125</v>
+        <v>0.495088028905704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.484259226263366</v>
+        <v>0.524921374189507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.58866177439978</v>
+        <v>0.591941037014067</v>
       </c>
       <c r="G8" t="n">
-        <v>0.422400589296013</v>
+        <v>0.456819466801943</v>
       </c>
       <c r="H8" t="n">
-        <v>0.524665035453288</v>
+        <v>0.508200690995298</v>
       </c>
       <c r="I8" t="n">
-        <v>0.51495362718769</v>
+        <v>0.52300575337374</v>
       </c>
       <c r="J8" t="n">
-        <v>0.542948976699992</v>
+        <v>0.542266733123058</v>
       </c>
       <c r="K8" t="n">
-        <v>0.280859480130154</v>
+        <v>0.296876438769083</v>
       </c>
       <c r="L8" t="n">
-        <v>0.603725863836496</v>
+        <v>0.594355780533345</v>
       </c>
       <c r="M8" t="n">
-        <v>0.429572092978535</v>
+        <v>0.672464791241274</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.40374576344328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.471409753379986</v>
+        <v>0.472274429131213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.511419657456943</v>
+        <v>0.540327123031372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469962723308663</v>
+        <v>0.561605121197964</v>
       </c>
       <c r="E9" t="n">
-        <v>0.474565871366235</v>
+        <v>0.484276172595847</v>
       </c>
       <c r="F9" t="n">
-        <v>0.567811567214036</v>
+        <v>0.58866177439978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.402783255465927</v>
+        <v>0.422400589296013</v>
       </c>
       <c r="H9" t="n">
-        <v>0.542201778861752</v>
+        <v>0.524665035453288</v>
       </c>
       <c r="I9" t="n">
-        <v>0.506093212662672</v>
+        <v>0.51495362718769</v>
       </c>
       <c r="J9" t="n">
-        <v>0.527522642158457</v>
+        <v>0.54304619857183</v>
       </c>
       <c r="K9" t="n">
-        <v>0.30406917918912</v>
+        <v>0.280940372958279</v>
       </c>
       <c r="L9" t="n">
-        <v>0.688471530144484</v>
+        <v>0.456838794373566</v>
       </c>
       <c r="M9" t="n">
-        <v>0.423691126044979</v>
+        <v>0.603725863836496</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.429601311528009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.467474746861263</v>
+        <v>0.463687229299451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.532496566334215</v>
+        <v>0.556554654633912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.495141295889515</v>
+        <v>0.507372337420729</v>
       </c>
       <c r="E10" t="n">
-        <v>0.524916850222331</v>
+        <v>0.542203928429308</v>
       </c>
       <c r="F10" t="n">
-        <v>0.591941037014067</v>
+        <v>0.594223913846543</v>
       </c>
       <c r="G10" t="n">
-        <v>0.456819466801943</v>
+        <v>0.441717783939359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.508200690995298</v>
+        <v>0.530543360898448</v>
       </c>
       <c r="I10" t="n">
-        <v>0.52300575337374</v>
+        <v>0.531455138277002</v>
       </c>
       <c r="J10" t="n">
-        <v>0.542190784691429</v>
+        <v>0.520220321402756</v>
       </c>
       <c r="K10" t="n">
-        <v>0.29675877518806</v>
+        <v>0.325524678081646</v>
       </c>
       <c r="L10" t="n">
-        <v>0.672464791241274</v>
+        <v>0.349016296615525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.403616088365485</v>
+        <v>0.629350439518224</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.404921841368987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.378532663776064</v>
+        <v>0.373752935747861</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.461683233240587</v>
+        <v>0.461656997855799</v>
       </c>
       <c r="E11" t="n">
-        <v>0.411912973421282</v>
+        <v>0.411908509173002</v>
       </c>
       <c r="F11" t="n">
         <v>0.413269067027582</v>
@@ -860,16 +893,19 @@
         <v>0.395162144580406</v>
       </c>
       <c r="J11" t="n">
-        <v>0.418496489723171</v>
+        <v>0.418574312646126</v>
       </c>
       <c r="K11" t="n">
-        <v>0.251375622116217</v>
+        <v>0.251461087147566</v>
       </c>
       <c r="L11" t="n">
+        <v>0.34371419848382</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.533333498726061</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.325004792231897</v>
+      <c r="N11" t="n">
+        <v>0.324748537110434</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_weight_vote_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_weight_vote_positive.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.633130423220635</v>
+        <v>0.633494335624418</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
@@ -503,7 +503,7 @@
         <v>0.524491585481855</v>
       </c>
       <c r="L2" t="n">
-        <v>0.568973456184735</v>
+        <v>0.571420592391542</v>
       </c>
       <c r="M2" t="n">
         <v>0.670833846908728</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563498853260559</v>
+        <v>0.563185705845955</v>
       </c>
       <c r="C3" t="n">
         <v>0.60475424371171</v>
@@ -547,7 +547,7 @@
         <v>0.445837116675855</v>
       </c>
       <c r="L3" t="n">
-        <v>0.583955154990387</v>
+        <v>0.581687077490783</v>
       </c>
       <c r="M3" t="n">
         <v>0.699951386105416</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.548888702456242</v>
+        <v>0.549025299914154</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
@@ -591,7 +591,7 @@
         <v>0.418778652482084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.605453531287603</v>
+        <v>0.606993083582337</v>
       </c>
       <c r="M4" t="n">
         <v>0.754595050954226</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.492515087699993</v>
+        <v>0.492207052765953</v>
       </c>
       <c r="C5" t="n">
         <v>0.523046603226999</v>
@@ -635,7 +635,7 @@
         <v>0.358715278828469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5178833513058</v>
+        <v>0.515461423170611</v>
       </c>
       <c r="M5" t="n">
         <v>0.703571225719179</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.487666417243067</v>
+        <v>0.487936223741052</v>
       </c>
       <c r="C6" t="n">
         <v>0.511419657456943</v>
@@ -679,7 +679,7 @@
         <v>0.30423038698242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.589896134442377</v>
+        <v>0.59173795514127</v>
       </c>
       <c r="M6" t="n">
         <v>0.688471530144484</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.486367361421124</v>
+        <v>0.48659573221636</v>
       </c>
       <c r="C7" t="n">
         <v>0.576307051782642</v>
@@ -723,7 +723,7 @@
         <v>0.408669702435669</v>
       </c>
       <c r="L7" t="n">
-        <v>0.34778801311712</v>
+        <v>0.349529833122157</v>
       </c>
       <c r="M7" t="n">
         <v>0.530644213623694</v>
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.484425269846573</v>
+        <v>0.484505093491948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.532496566334214</v>
+        <v>0.532496566334215</v>
       </c>
       <c r="D8" t="n">
         <v>0.495088028905704</v>
@@ -767,7 +767,7 @@
         <v>0.296876438769083</v>
       </c>
       <c r="L8" t="n">
-        <v>0.594355780533345</v>
+        <v>0.595431312960594</v>
       </c>
       <c r="M8" t="n">
         <v>0.672464791241274</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.472274429131213</v>
+        <v>0.472605946730509</v>
       </c>
       <c r="C9" t="n">
         <v>0.540327123031372</v>
@@ -811,7 +811,7 @@
         <v>0.280940372958279</v>
       </c>
       <c r="L9" t="n">
-        <v>0.456838794373566</v>
+        <v>0.459773904184331</v>
       </c>
       <c r="M9" t="n">
         <v>0.603725863836496</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.463687229299451</v>
+        <v>0.463777077783225</v>
       </c>
       <c r="C10" t="n">
         <v>0.556554654633912</v>
@@ -855,7 +855,7 @@
         <v>0.325524678081646</v>
       </c>
       <c r="L10" t="n">
-        <v>0.349016296615525</v>
+        <v>0.349930643239213</v>
       </c>
       <c r="M10" t="n">
         <v>0.629350439518224</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.373752935747861</v>
+        <v>0.373830435892481</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
@@ -899,7 +899,7 @@
         <v>0.251461087147566</v>
       </c>
       <c r="L11" t="n">
-        <v>0.34371419848382</v>
+        <v>0.344282629685112</v>
       </c>
       <c r="M11" t="n">
         <v>0.533333498726061</v>
